--- a/Dados/Questao4.xlsx
+++ b/Dados/Questao4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edevaldogaudencio/Documents/Pessoal/Educação/FGV/Mestrado Profissional em Economia/2_2020/Estatística/Listas de Exercícios/Lista 1/dados/MestradoEstatisticaLista1/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A69A6-EF93-4F41-A4EF-72FDF37DE242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E58F78-B530-FA4A-A310-B31026A3F788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="940" windowWidth="26660" windowHeight="15540" xr2:uid="{15948036-8FDD-324D-B725-7CB124578CC5}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>0.05</v>
       </c>
       <c r="G5" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="H5" s="2">
         <v>1.6666666666666666E-2</v>
